--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files(x86)\Projects\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF45915-7575-409D-91B1-37F01D790CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697FFE0C-1D5D-4985-8A45-75A53BA05D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -104,6 +104,10 @@
   <si>
     <t>Realm02</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -178,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +198,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -498,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H10"/>
+  <dimension ref="C3:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -668,6 +675,23 @@
       </c>
       <c r="H10" s="5"/>
     </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -679,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB5182C-9C31-40B5-8FB3-DC4BCB022F46}">
   <dimension ref="C3:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files(x86)\Projects\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697FFE0C-1D5D-4985-8A45-75A53BA05D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518D6141-2BF1-4C96-A173-4A43DD9EF2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -505,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H11"/>
+  <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -690,6 +694,23 @@
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
